--- a/biology/Botanique/Jatropha/Jatropha.xlsx
+++ b/biology/Botanique/Jatropha/Jatropha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jatropha est un genre de plantes à fleurs dicotylédones de la famille des Euphorbiaceae.
 On dénombre environ 160 espèces originaires d'Amérique centrale ou du Sud.
@@ -512,7 +524,9 @@
           <t>Description, dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges renflées (caudex) à la base de certaines espèces leur valent les noms de plantes bouteilles et de pignons d'Inde, mais on les appelle aussi médiciniers pour leurs utilisations thérapeutiques auxquelles le genre doit son nom (Jatropha dérive du grec jatrós, médecin et trophé, nourriture).
 </t>
@@ -543,19 +557,21 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour la plupart des Euphorbiaceae, les baies et la sève sont toxiques[1] (y compris pour les poulets[1], les poissons[1], les ruminants[1] et même les chèvres[2], dans ce cas quelle que soit la dose testée).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour la plupart des Euphorbiaceae, les baies et la sève sont toxiques (y compris pour les poulets, les poissons, les ruminants et même les chèvres, dans ce cas quelle que soit la dose testée).
 Les jatrophas les plus connus pour leurs usages sont :
-Jatropha curcas (également appelée pourghère, pignon d'Inde ou médicinier). C'est un arbuste traditionnellement utilisé en haie vive pour protéger des cultures ou des habitations des animaux (ses graines aux propriétés médicinales sont toxiques pour les humains et les animaux), originaire d'Amérique centrale ; il présente des vertus désinfectante[3], antifongique[4] et antiparasitaire, susceptible d'être utilisée contre la Malaria[3] ; il est aujourd'hui répandu dans le monde entier ;
-Jatropha cilliata contient des flavonoides qui ont des propriétés anxiolytiques atténuant les conflits entre souris de laboratoire[5] ;
+Jatropha curcas (également appelée pourghère, pignon d'Inde ou médicinier). C'est un arbuste traditionnellement utilisé en haie vive pour protéger des cultures ou des habitations des animaux (ses graines aux propriétés médicinales sont toxiques pour les humains et les animaux), originaire d'Amérique centrale ; il présente des vertus désinfectante, antifongique et antiparasitaire, susceptible d'être utilisée contre la Malaria ; il est aujourd'hui répandu dans le monde entier ;
+Jatropha cilliata contient des flavonoides qui ont des propriétés anxiolytiques atténuant les conflits entre souris de laboratoire ;
 Jatropha gossypiifolia dont l'huile est purgative et la racine utilisée contre la lèpre ;
 Jatropha integerrima, épicar, à la floraison rouge décorative ;
 Jatropha multifida, l'arbre corail dont les feuilles sont consommées au Mexique ;
 Jatropha podagrica, plante ornementale très prisée ;
 Jatropha phyllacantha, plante du Brésil aussi appelée favela qui donna son nom aux quartiers déshérités de la plupart des villes du pays.
 L'huile de jatropha extraite de son fruit peut être utilisée pour la cuisson des aliments, produire du savon ou des bougies.
-Plus récemment, cette huile a été proposée comme agrocarburant, mais avant que les besoins de l'espèce soient bien connus[6] et avec des résultats controversés[7].
+Plus récemment, cette huile a été proposée comme agrocarburant, mais avant que les besoins de l'espèce soient bien connus et avec des résultats controversés.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jatropha acrandra
@@ -1005,7 +1023,9 @@
           <t>Espèces déplacées vers d'autres genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pour Jatropha stimulosa, voir Cnidoscolus stimulosus
 Pour Jatropha urens, voir Cnidoscolus urens.</t>
